--- a/data/data_view_detail_document.xlsx
+++ b/data/data_view_detail_document.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Testing\RobotFramework\LibQNU\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE485C0-74A7-4935-9BC4-0928C4725D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C36130-352A-4C60-8191-7B52A65EBD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4725" yWindow="2265" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>${data_keyword_search}</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>Khoa học</t>
+  </si>
+  <si>
+    <t>*** Test case ***</t>
+  </si>
+  <si>
+    <t>TC053 - Mở trang chi tiết tài liệu số từ kết quả tìm kiếm</t>
   </si>
 </sst>
 </file>
@@ -359,38 +365,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>4451190019</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>4451190019</v>
       </c>
     </row>
@@ -407,17 +420,17 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
